--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 09:32:25</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:59:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:59:55</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:39:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:39:46</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:56:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:56:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:11:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:11:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:29:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:29:40</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:38:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:38:51</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:48:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:48:03</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:56:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:56:31</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:13:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:13:26</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:34:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:34:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:45:06</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:53:55</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:03:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:03:09</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:21:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:21:46</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:31:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:31:30</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:39:57</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:48:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:48:50</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:57:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:57:44</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:16:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:16:52</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:33:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:33:49</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:45:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:45:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:54:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:54:02</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:03:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:03:17</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:21:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:21:04</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:29:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:29:27</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:38:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:38:32</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:47:13</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:56:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:56:05</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:12:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:12:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:33:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:33:22</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:43:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:43:50</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:52:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:52:43</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:02:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:02:20</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:19:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:19:58</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:29:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:29:31</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:38:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:38:52</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:47:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:47:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:56:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:56:30</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:12:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:12:23</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:30:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:30:06</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:39:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:39:46</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:49:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:49:17</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:57:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:57:39</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:11:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:11:23</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:23:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:23:29</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:33:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:33:09</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:41:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:41:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:50:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:50:20</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:59:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:59:33</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 09:28:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 09:28:38</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 09:54:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 09:54:57</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 10:14:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 10:14:12</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 10:31:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 10:31:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 10:40:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 10:40:37</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 10:49:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 10:49:39</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 10:58:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 10:58:25</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:13:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4004,7 +4004,7 @@
     <t>SANTALUZ</t>
   </si>
   <si>
-    <t>422.076.859,35</t>
+    <t>4.310.348,75</t>
   </si>
   <si>
     <t>BARRAGEM DE GABIÕES</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:13:07</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:27:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:27:10</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:36:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:36:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:45:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:45:25</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:54:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:54:22</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:03:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:03:31</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:23:41</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4049,7 +4049,7 @@
     <t>-39°18'03.000"</t>
   </si>
   <si>
-    <t>1.264.000,00</t>
+    <t>1.263.999,66</t>
   </si>
   <si>
     <t>Barragem de Mercês</t>
@@ -4412,7 +4412,7 @@
     <t>PILAR DE GOIÁS</t>
   </si>
   <si>
-    <t>8.993.438,82</t>
+    <t>8.975.503,90</t>
   </si>
   <si>
     <t>Barragem de Rejeitos SB 02</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:23:41</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:32:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:32:56</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:41:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:41:49</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:50:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:50:59</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 12:59:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 12:59:39</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:21:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:21:27</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:42:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:42:44</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 01:53:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 01:53:23</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:02:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:02:39</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:19:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:19:47</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:30:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:30:17</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:39:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:39:36</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:48:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:48:02</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 02:56:43</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -3737,7 +3737,7 @@
     <t>VITÓRIA DO JARI</t>
   </si>
   <si>
-    <t>2.390.000,00</t>
+    <t>2.357.000,00</t>
   </si>
   <si>
     <t>Barragem da Grota</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 02:56:43</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:14:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:14:15</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:32:59</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4574,7 +4574,7 @@
     <t>ALMEIRIM</t>
   </si>
   <si>
-    <t>4.200.000,00</t>
+    <t>4.400.000,00</t>
   </si>
   <si>
     <t>Barragem do Muriacá</t>
@@ -43428,7 +43428,7 @@
         <v>46</v>
       </c>
       <c r="Q524" s="0" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="R524" s="0" t="s">
         <v>146</v>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:32:59</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:43:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:43:50</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 03:55:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 03:55:24</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:01:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:01:41</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:16:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:16:53</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:25:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:25:45</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:34:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:34:53</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:44:10</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4412,7 +4412,7 @@
     <t>PILAR DE GOIÁS</t>
   </si>
   <si>
-    <t>8.975.503,90</t>
+    <t>8.999.875,47</t>
   </si>
   <si>
     <t>Barragem de Rejeitos SB 02</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:44:10</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 04:52:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 04:52:48</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:02:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:02:00</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:22:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:22:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:31:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:31:28</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:40:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:40:46</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:49:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:49:42</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 05:58:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 05:58:58</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:13:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:13:28</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:26:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:26:13</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:35:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224429.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:35:10</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:44:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:44:24</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 06:53:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220129.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 06:53:33</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:01:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220129.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:01:41</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:19:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:19:49</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:32:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:32:04</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:40:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224029.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:40:35</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:49:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:49:17</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 07:58:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 07:58:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:15:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:15:17</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:29:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:29:50</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:38:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:38:52</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:47:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-29.xlsx
+++ b/sigbm_download_2022-12-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 08:47:25</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 08:56:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
